--- a/assets/themes/nimpray/prayer/nimprayer-sample.xlsx
+++ b/assets/themes/nimpray/prayer/nimprayer-sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -28,13 +28,16 @@
     <t>Image</t>
   </si>
   <si>
-    <t>test</t>
+    <t>आज हामी देशको लागि प्रार्थना गरौ। सतावटमा परेका विश्वासीहरुको लागि प्रार्थना गरौ।</t>
   </si>
   <si>
-    <t>hello</t>
+    <t>भजन ३४:१९</t>
   </si>
   <si>
-    <t>http://test.com</t>
+    <t>धार्मिक मानिसलाई धेरै विपत्ति आइलाग्छन् तर परमप्रभुले त्यसलाई सबै बाट उद्धार दिनुहुन्छ।</t>
+  </si>
+  <si>
+    <t>http://www.clker.com/cliparts/o/C/H/o/S/y/praying-hands-rt.svg</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>42249.0</v>
+        <v>42277.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -132,34 +135,23 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>42250.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>